--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -97,6 +97,21 @@
     <t xml:space="preserve">Comentario</t>
   </si>
   <si>
+    <t xml:space="preserve">Garantías Propuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Garantía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
@@ -176,6 +191,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRENO</t>
   </si>
 </sst>
 </file>
@@ -260,13 +287,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -296,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +338,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -388,126 +419,151 @@
       </c>
       <c r="AA1" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="T2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">TERRENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0267</t>
   </si>
 </sst>
 </file>
@@ -327,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,6 +438,9 @@
       <c r="AF1" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="AG1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -533,7 +539,9 @@
       <c r="AF2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="3"/>
+      <c r="AG2" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t xml:space="preserve">06-3071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-3040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APROBADO</t>
   </si>
 </sst>
 </file>
@@ -333,8 +339,8 @@
   </sheetPr>
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH2" activeCellId="0" sqref="AH2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,6 +453,12 @@
       <c r="AH1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AI1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -551,8 +563,12 @@
       <c r="AH2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+      <c r="AI2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -112,6 +112,12 @@
     <t xml:space="preserve">Descripcion</t>
   </si>
   <si>
+    <t xml:space="preserve">Abono o cancelacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
@@ -209,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">06-3071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
   </si>
 </sst>
 </file>
@@ -334,7 +346,7 @@
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH2" activeCellId="0" sqref="AH2"/>
+      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,6 +354,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,112 +460,122 @@
       <c r="AH1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -112,6 +112,9 @@
     <t xml:space="preserve">Descripcion</t>
   </si>
   <si>
+    <t xml:space="preserve">Destino Operacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abono o cancelacion</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t xml:space="preserve">06-3071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-3040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APROBAR</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -343,9 +352,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
@@ -460,124 +469,134 @@
       <c r="AH1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
+      <c r="AJ2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
@@ -604,6 +623,7 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -112,7 +112,19 @@
     <t xml:space="preserve">Descripcion</t>
   </si>
   <si>
-    <t xml:space="preserve">10.16.5.64</t>
+    <t xml:space="preserve">Cumple Antigüedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historial Crediticio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convalidación Análisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusión CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.115.64</t>
   </si>
   <si>
     <t xml:space="preserve">UE0100061Y</t>
@@ -215,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">APROBADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APROBADO CP</t>
   </si>
 </sst>
 </file>
@@ -337,10 +352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP7" activeCellId="0" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,6 +363,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,121 +477,140 @@
       <c r="AJ1" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="AK1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="AC2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
+      <c r="AL2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
@@ -597,6 +634,9 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ9" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -130,7 +130,25 @@
     <t xml:space="preserve">Conclusión CP</t>
   </si>
   <si>
-    <t xml:space="preserve">10.16.5.64</t>
+    <t xml:space="preserve">Cumple Política De Garantías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobertura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumple Requisitos Documentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad De Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limite De Endeudamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar Aprobación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16.5.64</t>
   </si>
   <si>
     <t xml:space="preserve">UE0100061Y</t>
@@ -367,7 +385,7 @@
   <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,140 +525,170 @@
       <c r="AP1" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="AQ1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">Enviar Aprobación</t>
   </si>
   <si>
+    <t xml:space="preserve">Tipo Transaccion</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
@@ -260,6 +263,12 @@
   </si>
   <si>
     <t xml:space="preserve">APROBADO CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3080</t>
   </si>
 </sst>
 </file>
@@ -384,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:BK9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW1" activeCellId="0" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,157 +549,167 @@
       <c r="AU1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Enviar Aprobación</t>
   </si>
   <si>
-    <t xml:space="preserve">10.16.5.64</t>
+    <t xml:space="preserve">10.1.115.64</t>
   </si>
   <si>
     <t xml:space="preserve">UE0100061Y</t>
@@ -385,7 +385,7 @@
   <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -393,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:BK9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW1" activeCellId="0" sqref="AW1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tipo Transaccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observacion</t>
   </si>
   <si>
     <t xml:space="preserve">10.16.5.64</t>
@@ -393,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:BK9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY2" activeCellId="0" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,159 +561,164 @@
       <c r="AX1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="AY1" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -151,6 +151,15 @@
     <t xml:space="preserve">Tipo Transaccion</t>
   </si>
   <si>
+    <t xml:space="preserve">Transacción 06-2033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentario de 06-2033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transacción 06-2001</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
@@ -269,6 +278,12 @@
   </si>
   <si>
     <t xml:space="preserve">3080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-2033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-2001</t>
   </si>
 </sst>
 </file>
@@ -558,161 +573,176 @@
       <c r="AX1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="AY1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
+      <c r="BA2" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -10,10 +10,10 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -294,11 +294,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -319,6 +318,13 @@
     </font>
     <font>
       <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -373,19 +379,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,295 +416,180 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:FE9"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.55"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3"/>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
-      <c r="DC1" s="3"/>
-      <c r="DD1" s="3"/>
-      <c r="DE1" s="3"/>
-      <c r="DF1" s="3"/>
-      <c r="DG1" s="3"/>
-      <c r="DH1" s="3"/>
-      <c r="DI1" s="3"/>
-      <c r="DJ1" s="3"/>
-      <c r="DK1" s="3"/>
-      <c r="DL1" s="3"/>
-      <c r="DM1" s="3"/>
-      <c r="DN1" s="3"/>
-      <c r="DO1" s="3"/>
-      <c r="DP1" s="3"/>
-      <c r="DQ1" s="3"/>
-      <c r="DR1" s="3"/>
-      <c r="DS1" s="3"/>
-      <c r="DT1" s="3"/>
-      <c r="DU1" s="3"/>
-      <c r="DV1" s="3"/>
-      <c r="DW1" s="3"/>
-      <c r="DX1" s="3"/>
-      <c r="DY1" s="3"/>
-      <c r="DZ1" s="3"/>
-      <c r="EA1" s="3"/>
-      <c r="EB1" s="3"/>
-      <c r="EC1" s="3"/>
-      <c r="ED1" s="3"/>
-      <c r="EE1" s="3"/>
-      <c r="EF1" s="3"/>
-      <c r="EG1" s="3"/>
-      <c r="EH1" s="3"/>
-      <c r="EI1" s="3"/>
-      <c r="EJ1" s="3"/>
-      <c r="EK1" s="3"/>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3"/>
-      <c r="EN1" s="3"/>
-      <c r="EO1" s="3"/>
-      <c r="EP1" s="3"/>
-      <c r="EQ1" s="3"/>
-      <c r="ER1" s="3"/>
-      <c r="ES1" s="3"/>
-      <c r="ET1" s="3"/>
-      <c r="EU1" s="3"/>
-      <c r="EV1" s="3"/>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3"/>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3"/>
-      <c r="FA1" s="3"/>
-      <c r="FB1" s="3"/>
-      <c r="FC1" s="3"/>
-      <c r="FD1" s="3"/>
-      <c r="FE1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -755,7 +646,7 @@
       <c r="S2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -767,16 +658,16 @@
       <c r="W2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="0" t="s">
+      <c r="X2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AA2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -842,13 +733,13 @@
       <c r="AV2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="0" t="s">
+      <c r="AW2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AY2" s="0" t="s">
+      <c r="AY2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AZ2" s="4" t="s">
@@ -860,124 +751,14 @@
       <c r="BB2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="3"/>
-      <c r="CY2" s="3"/>
-      <c r="CZ2" s="3"/>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
-      <c r="DK2" s="3"/>
-      <c r="DL2" s="3"/>
-      <c r="DM2" s="3"/>
-      <c r="DN2" s="3"/>
-      <c r="DO2" s="3"/>
-      <c r="DP2" s="3"/>
-      <c r="DQ2" s="3"/>
-      <c r="DR2" s="3"/>
-      <c r="DS2" s="3"/>
-      <c r="DT2" s="3"/>
-      <c r="DU2" s="3"/>
-      <c r="DV2" s="3"/>
-      <c r="DW2" s="3"/>
-      <c r="DX2" s="3"/>
-      <c r="DY2" s="3"/>
-      <c r="DZ2" s="3"/>
-      <c r="EA2" s="3"/>
-      <c r="EB2" s="3"/>
-      <c r="EC2" s="3"/>
-      <c r="ED2" s="3"/>
-      <c r="EE2" s="3"/>
-      <c r="EF2" s="3"/>
-      <c r="EG2" s="3"/>
-      <c r="EH2" s="3"/>
-      <c r="EI2" s="3"/>
-      <c r="EJ2" s="3"/>
-      <c r="EK2" s="3"/>
-      <c r="EL2" s="3"/>
-      <c r="EM2" s="3"/>
-      <c r="EN2" s="3"/>
-      <c r="EO2" s="3"/>
-      <c r="EP2" s="3"/>
-      <c r="EQ2" s="3"/>
-      <c r="ER2" s="3"/>
-      <c r="ES2" s="3"/>
-      <c r="ET2" s="3"/>
-      <c r="EU2" s="3"/>
-      <c r="EV2" s="3"/>
-      <c r="EW2" s="3"/>
-      <c r="EX2" s="3"/>
-      <c r="EY2" s="3"/>
-      <c r="EZ2" s="3"/>
-      <c r="FA2" s="3"/>
-      <c r="FB2" s="3"/>
-      <c r="FC2" s="3"/>
-      <c r="FD2" s="3"/>
-      <c r="FE2" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AQ9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Transacción 06-2001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.16.5.64</t>
+    <t xml:space="preserve">10.15.6.64</t>
   </si>
   <si>
     <t xml:space="preserve">UE0100061Y</t>
@@ -422,7 +422,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -589,7 +589,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Transacción 06-2001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.15.6.64</t>
+    <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
     <t xml:space="preserve">UE0100061Y</t>
@@ -419,10 +419,10 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -160,7 +160,10 @@
     <t xml:space="preserve">Transacción 06-2001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.15.6.64</t>
+    <t xml:space="preserve">Decisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
     <t xml:space="preserve">UE0100061Y</t>
@@ -284,6 +287,9 @@
   </si>
   <si>
     <t xml:space="preserve">06-2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APROBAR</t>
   </si>
 </sst>
 </file>
@@ -416,13 +422,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -587,169 +593,181 @@
       <c r="BB1" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="AC2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="BB2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="1" t="n">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -163,6 +163,12 @@
     <t xml:space="preserve">Decisión</t>
   </si>
   <si>
+    <t xml:space="preserve">Transaccion 06-3002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta a debitar</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
   </si>
   <si>
     <t xml:space="preserve">APROBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-3002</t>
   </si>
 </sst>
 </file>
@@ -380,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,6 +403,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,13 +435,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -599,175 +612,187 @@
       <c r="BD1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="BE1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="R2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="T2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="V2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AD2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AE2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AF2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AG2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AH2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AI2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AK2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>70</v>
+      <c r="AL2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="AW2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>89</v>
+      <c r="BB2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="BD2" s="1" t="n">
         <v>2001</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>3000407614</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t xml:space="preserve">Ip</t>
   </si>
@@ -169,6 +169,12 @@
     <t xml:space="preserve">Cuenta a debitar</t>
   </si>
   <si>
+    <t xml:space="preserve">Transaccion 06-2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero Garantia</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.16.5.64</t>
   </si>
   <si>
@@ -214,7 +220,7 @@
     <t xml:space="preserve">00A011121</t>
   </si>
   <si>
-    <t xml:space="preserve">15000</t>
+    <t xml:space="preserve">1500</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -299,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">06-3002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-2006</t>
   </si>
 </sst>
 </file>
@@ -435,13 +444,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.16"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -618,181 +633,193 @@
       <c r="BF1" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="BG1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="AC2" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="BB2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BD2" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BE2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BE2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF2" s="1" t="n">
         <v>3000407614</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH2" s="0" t="n">
+        <v>90000157848</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">06-2000</t>
@@ -446,14 +446,14 @@
   </sheetPr>
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.16"/>
   </cols>
@@ -812,7 +812,7 @@
       <c r="BE2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BF2" s="1" t="n">
+      <c r="BF2" s="0" t="n">
         <v>3000407614</v>
       </c>
       <c r="BG2" s="1" t="s">

--- a/src/test/assets/exceldocuments/testRead02.xlsx
+++ b/src/test/assets/exceldocuments/testRead02.xlsx
@@ -446,12 +446,15 @@
   </sheetPr>
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.01"/>
